--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-11.xlsx
@@ -657,10 +657,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -672,7 +672,7 @@
         <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -681,16 +681,16 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
         <v>1.02</v>
@@ -699,10 +699,10 @@
         <v>1.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
         <v>1000</v>
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.44</v>
       </c>
       <c r="H3" t="n">
         <v>3.45</v>
@@ -804,13 +804,13 @@
         <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
         <v>1.39</v>
@@ -819,10 +819,10 @@
         <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
         <v>2.06</v>
@@ -831,7 +831,7 @@
         <v>1.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V3" t="n">
         <v>11.5</v>
@@ -846,7 +846,7 @@
         <v>65</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA3" t="n">
         <v>7.4</v>
@@ -927,13 +927,13 @@
         <v>38</v>
       </c>
       <c r="J4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -948,19 +948,19 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="S4" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
         <v>1.02</v>
       </c>
       <c r="U4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V4" t="n">
         <v>85</v>
@@ -969,7 +969,7 @@
         <v>120</v>
       </c>
       <c r="X4" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -978,10 +978,10 @@
         <v>15.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
@@ -999,7 +999,7 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AI4" t="n">
         <v>16</v>
@@ -1074,7 +1074,7 @@
         <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
         <v>1.8</v>
@@ -1095,7 +1095,7 @@
         <v>19</v>
       </c>
       <c r="W5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X5" t="n">
         <v>60</v>
@@ -1176,16 +1176,16 @@
         <v>2.92</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
         <v>1.09</v>
       </c>
       <c r="I6" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
         <v>110</v>
@@ -1197,7 +1197,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
@@ -1206,7 +1206,7 @@
         <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R6" t="n">
         <v>1.02</v>
@@ -1215,7 +1215,7 @@
         <v>1.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
         <v>1.25</v>
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
@@ -1323,7 +1323,7 @@
         <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
         <v>3.25</v>
@@ -1332,7 +1332,7 @@
         <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
         <v>2.16</v>
@@ -1347,7 +1347,7 @@
         <v>1.31</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
         <v>11.5</v>
@@ -1392,16 +1392,16 @@
         <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="n">
         <v>17.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1470,7 +1470,7 @@
         <v>1.76</v>
       </c>
       <c r="S8" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T8" t="n">
         <v>1.43</v>
@@ -1560,16 +1560,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G9" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.82</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.84</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
@@ -1584,31 +1584,31 @@
         <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P9" t="n">
         <v>1.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="S9" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U9" t="n">
         <v>1.5</v>
       </c>
       <c r="V9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="W9" t="n">
         <v>8.6</v>
@@ -1620,7 +1620,7 @@
         <v>46</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1659,7 +1659,7 @@
         <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1701,10 +1701,10 @@
         <v>3.5</v>
       </c>
       <c r="J10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.48</v>
@@ -1722,13 +1722,13 @@
         <v>1.69</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
         <v>1.96</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T10" t="n">
         <v>1.4</v>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G11" t="n">
         <v>1.33</v>
@@ -1842,13 +1842,13 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q11" t="n">
         <v>1.67</v>
@@ -1872,10 +1872,10 @@
         <v>38</v>
       </c>
       <c r="X11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="n">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="Z11" t="n">
         <v>9.199999999999999</v>
@@ -1887,7 +1887,7 @@
         <v>42</v>
       </c>
       <c r="AC11" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AD11" t="n">
         <v>7.8</v>
@@ -1902,7 +1902,7 @@
         <v>160</v>
       </c>
       <c r="AH11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>13.5</v>
@@ -1956,7 +1956,7 @@
         <v>12.5</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J12" t="n">
         <v>6.8</v>
@@ -1965,7 +1965,7 @@
         <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -1977,7 +1977,7 @@
         <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q12" t="n">
         <v>1.53</v>
@@ -1986,7 +1986,7 @@
         <v>2.02</v>
       </c>
       <c r="S12" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="T12" t="n">
         <v>1.08</v>
@@ -2004,7 +2004,7 @@
         <v>130</v>
       </c>
       <c r="Y12" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="Z12" t="n">
         <v>11</v>
@@ -2115,7 +2115,7 @@
         <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
         <v>1.18</v>
@@ -2238,7 +2238,7 @@
         <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R14" t="n">
         <v>1.44</v>
@@ -2256,7 +2256,7 @@
         <v>30</v>
       </c>
       <c r="W14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X14" t="n">
         <v>19</v>
@@ -2268,7 +2268,7 @@
         <v>25</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB14" t="n">
         <v>11.5</v>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
         <v>2.44</v>
@@ -2343,7 +2343,7 @@
         <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
@@ -2352,7 +2352,7 @@
         <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2361,7 +2361,7 @@
         <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
         <v>1.79</v>
@@ -2376,13 +2376,13 @@
         <v>2.04</v>
       </c>
       <c r="T15" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U15" t="n">
         <v>1.69</v>
       </c>
       <c r="V15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="W15" t="n">
         <v>12</v>
@@ -2391,7 +2391,7 @@
         <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z15" t="n">
         <v>9.6</v>
@@ -2400,10 +2400,10 @@
         <v>7.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AD15" t="n">
         <v>14.5</v>
@@ -2415,7 +2415,7 @@
         <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH15" t="n">
         <v>34</v>
@@ -2433,7 +2433,7 @@
         <v>25</v>
       </c>
       <c r="AM15" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -2499,7 +2499,7 @@
         <v>1.38</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S16" t="n">
         <v>2.38</v>
@@ -2523,7 +2523,7 @@
         <v>270</v>
       </c>
       <c r="Z16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA16" t="n">
         <v>15</v>
@@ -2535,7 +2535,7 @@
         <v>110</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
         <v>10.5</v>
@@ -2547,7 +2547,7 @@
         <v>75</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI16" t="n">
         <v>12.5</v>
@@ -2556,10 +2556,10 @@
         <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AM16" t="n">
         <v>75</v>
@@ -2595,7 +2595,7 @@
         <v>1.42</v>
       </c>
       <c r="G17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H17" t="n">
         <v>8.800000000000001</v>
@@ -2604,7 +2604,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K17" t="n">
         <v>5.5</v>
@@ -2616,7 +2616,7 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.19</v>
@@ -2655,10 +2655,10 @@
         <v>10.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC17" t="n">
         <v>130</v>
@@ -2751,10 +2751,10 @@
         <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
         <v>1.87</v>
@@ -2775,7 +2775,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
         <v>25</v>
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G19" t="n">
         <v>1.64</v>
@@ -2874,13 +2874,13 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
         <v>1.46</v>
@@ -2979,19 +2979,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>990</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
-        <v>1.17</v>
+        <v>2.66</v>
       </c>
       <c r="I20" t="n">
-        <v>990</v>
+        <v>4.3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.17</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
         <v>990</v>
@@ -3003,16 +3003,16 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.15</v>
+        <v>2.52</v>
       </c>
       <c r="O20" t="n">
         <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.15</v>
+        <v>1.76</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="R20" t="n">
         <v>1.02</v>
@@ -3021,10 +3021,10 @@
         <v>1.02</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="V20" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,110 +521,120 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Under35_FT_Back</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over35_FT_Back</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Odd_BTTS_Yes_Back</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No_Back</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Double_Chance_Home_or_Draw_Back</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Double_Chance_Draw_or_Away_Back</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0x0_Lay</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0x1_Lay</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0x2_Lay</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0x3_Lay</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1x0_Lay</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1x1_Lay</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1x2_Lay</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1x3_Lay</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2x0_Lay</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2x1_Lay</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2x2_Lay</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2x3_Lay</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3x0_Lay</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3x1_Lay</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3x2_Lay</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3x3_Lay</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_Goleada_H_Lay</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_Goleada_A_Lay</t>
         </is>
@@ -633,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -643,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:20:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Union Clodiense Chioggia</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.93</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -756,13 +766,19 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -772,126 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>09:20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>46</v>
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -901,126 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Union Clodiense Chioggia</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.09</v>
+        <v>1.53</v>
       </c>
       <c r="G4" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>18.5</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>9.4</v>
+        <v>2.28</v>
       </c>
       <c r="O4" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>2.58</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>2.28</v>
       </c>
       <c r="T4" t="n">
         <v>1.02</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>1.02</v>
       </c>
       <c r="V4" t="n">
-        <v>85</v>
+        <v>1.05</v>
       </c>
       <c r="W4" t="n">
-        <v>120</v>
+        <v>2.1</v>
       </c>
       <c r="X4" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.32</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1030,126 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>11:25:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Al Safa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1.54</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1159,126 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Club Real Santa Cruz</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.92</v>
+        <v>2.38</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.09</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>110</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N6" t="n">
-        <v>2.76</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1000</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1000</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>120</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English Championship</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1288,126 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.06</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>36</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>18</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>18.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>8.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>1.31</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="T7" t="n">
-        <v>1.31</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="V7" t="n">
-        <v>11.5</v>
+        <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="Y7" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.4</v>
+        <v>470</v>
       </c>
       <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>7.8</v>
       </c>
-      <c r="AB7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>44</v>
-      </c>
       <c r="AK7" t="n">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="n">
-        <v>17.5</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>70</v>
+        <v>370</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English Championship</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1417,126 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>1.53</v>
       </c>
       <c r="G8" t="n">
-        <v>2.42</v>
+        <v>1.54</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.35</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>1.15</v>
       </c>
       <c r="W8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="X8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>13.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>42</v>
-      </c>
       <c r="AK8" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>130</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Championship</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1546,120 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Club Real Santa Cruz</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sheff Utd</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>110</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
         <v>2.8</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.74</v>
-      </c>
       <c r="O9" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>1.66</v>
       </c>
       <c r="R9" t="n">
-        <v>2.14</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="T9" t="n">
-        <v>1.55</v>
+        <v>1.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>1.02</v>
       </c>
       <c r="V9" t="n">
-        <v>8.6</v>
+        <v>1.98</v>
       </c>
       <c r="W9" t="n">
-        <v>8.6</v>
+        <v>1.21</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>46</v>
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1710,10 +1768,10 @@
         <v>1.48</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
         <v>1.43</v>
@@ -1725,76 +1783,82 @@
         <v>2.3</v>
       </c>
       <c r="R10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.96</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.4</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>1.7</v>
       </c>
-      <c r="V10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
         <v>11.5</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>22</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AA10" t="n">
         <v>65</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AC10" t="n">
         <v>7.2</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AD10" t="n">
         <v>15</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AE10" t="n">
         <v>48</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AF10" t="n">
         <v>14</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AG10" t="n">
         <v>12</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AH10" t="n">
         <v>21</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>65</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>32</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AK10" t="n">
         <v>30</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
         <v>55</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
         <v>140</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AN10" t="n">
         <v>26</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AO10" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English Championship</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1804,126 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Sheff Utd</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.31</v>
+        <v>3.05</v>
       </c>
       <c r="G11" t="n">
-        <v>1.33</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>11.5</v>
+        <v>2.7</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>2.72</v>
       </c>
       <c r="J11" t="n">
-        <v>6.2</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>2.68</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>2.56</v>
       </c>
       <c r="R11" t="n">
-        <v>2.14</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.82</v>
+        <v>5.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.09</v>
+        <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH11" t="n">
         <v>23</v>
       </c>
-      <c r="W11" t="n">
-        <v>38</v>
-      </c>
-      <c r="X11" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>530</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AI11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO11" t="n">
         <v>42</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>180</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English Championship</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1933,126 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.29</v>
       </c>
-      <c r="G12" t="n">
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.3</v>
       </c>
-      <c r="H12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="U12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="V12" t="n">
-        <v>27</v>
-      </c>
       <c r="W12" t="n">
-        <v>46</v>
+        <v>1.92</v>
       </c>
       <c r="X12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM12" t="n">
         <v>130</v>
       </c>
-      <c r="Y12" t="n">
-        <v>490</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>200</v>
+      <c r="AN12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English Championship</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2062,126 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.61</v>
+        <v>2.4</v>
       </c>
       <c r="G13" t="n">
-        <v>1.63</v>
+        <v>2.42</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>6.4</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.87</v>
+        <v>1.37</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="T13" t="n">
-        <v>1.18</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>18</v>
+        <v>1.43</v>
       </c>
       <c r="W13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z13" t="n">
         <v>23</v>
       </c>
-      <c r="X13" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>170</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>9</v>
-      </c>
       <c r="AA13" t="n">
-        <v>9.4</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>80</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.6</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK13" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>8.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
         <v>90</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English Championship</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2196,121 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.45</v>
       </c>
-      <c r="G14" t="n">
+      <c r="K14" t="n">
         <v>3.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.12</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.45</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
-        <v>1.4</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>30</v>
+        <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>18</v>
+        <v>1.69</v>
       </c>
       <c r="X14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>19</v>
       </c>
-      <c r="Y14" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AI14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN14" t="n">
         <v>25</v>
       </c>
-      <c r="AA14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>8</v>
+      <c r="AO14" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English Championship</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2325,115 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>1.42</v>
       </c>
       <c r="G15" t="n">
-        <v>2.44</v>
+        <v>1.43</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>3.45</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W15" t="n">
         <v>3.3</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC15" t="n">
         <v>12</v>
       </c>
-      <c r="X15" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AD15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG15" t="n">
         <v>9.6</v>
       </c>
-      <c r="AA15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>60</v>
-      </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM15" t="n">
         <v>120</v>
       </c>
-      <c r="AL15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>46</v>
+      <c r="AN15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2472,7 +2566,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J16" t="n">
         <v>6.2</v>
@@ -2487,81 +2581,87 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q16" t="n">
         <v>1.38</v>
       </c>
       <c r="R16" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.38</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>1.12</v>
       </c>
-      <c r="U16" t="n">
+      <c r="W16" t="n">
         <v>3.7</v>
       </c>
-      <c r="V16" t="n">
+      <c r="X16" t="n">
         <v>48</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
         <v>50</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>100</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AA16" t="n">
         <v>270</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AB16" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AC16" t="n">
         <v>15</v>
       </c>
-      <c r="AB16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE16" t="n">
         <v>110</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AF16" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AG16" t="n">
         <v>10.5</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AH16" t="n">
         <v>22</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AI16" t="n">
         <v>75</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AJ16" t="n">
         <v>12.5</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AK16" t="n">
         <v>12.5</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AL16" t="n">
         <v>23</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AM16" t="n">
         <v>75</v>
       </c>
-      <c r="AL16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AM16" t="n">
+      <c r="AN16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO16" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2583,115 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.42</v>
+        <v>4.1</v>
       </c>
       <c r="G17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L17" t="n">
         <v>1.44</v>
       </c>
-      <c r="H17" t="n">
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y17" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="U17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="V17" t="n">
+      <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
         <v>25</v>
       </c>
-      <c r="W17" t="n">
-        <v>36</v>
-      </c>
-      <c r="X17" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>280</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AB17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD17" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>9</v>
-      </c>
       <c r="AE17" t="n">
-        <v>9.6</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>95</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>5.3</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
         <v>110</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="18">
@@ -2712,19 +2818,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="H18" t="n">
         <v>2.06</v>
@@ -2733,28 +2839,28 @@
         <v>2.08</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.44</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.12</v>
       </c>
       <c r="R18" t="n">
         <v>1.87</v>
@@ -2763,70 +2869,76 @@
         <v>2.06</v>
       </c>
       <c r="T18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.92</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="V18" t="n">
-        <v>12.5</v>
-      </c>
       <c r="W18" t="n">
-        <v>8.800000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Y18" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB18" t="n">
         <v>25</v>
       </c>
-      <c r="Z18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO18" t="n">
         <v>7.8</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>16.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2836,248 +2948,665 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L19" t="n">
         <v>1.28</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>180</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.01</v>
-      </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>2.08</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.46</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="S19" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W19" t="n">
         <v>2.56</v>
       </c>
-      <c r="V19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1000</v>
-      </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>110</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Crvena Zvezda</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>13</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X20" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4</v>
+      </c>
+      <c r="X21" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Royal Pari</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>110</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Guabira</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Jorge Wilstermann</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F23" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G23" t="n">
         <v>2.88</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>2.66</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>4.3</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J23" t="n">
         <v>2.88</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K23" t="n">
         <v>990</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
         <v>2.52</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="O23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P23" t="n">
         <v>1.76</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q23" t="n">
         <v>1.71</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.02</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U23" t="n">
         <v>1.02</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V23" t="n">
         <v>1.3</v>
       </c>
-      <c r="U20" t="n">
+      <c r="W23" t="n">
         <v>1.53</v>
       </c>
-      <c r="V20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM20" t="n">
+      <c r="X23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-11.xlsx
@@ -691,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Q2" t="n">
         <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="S2" t="n">
         <v>1.01</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="S3" t="n">
         <v>1.01</v>
@@ -967,7 +967,7 @@
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="Q4" t="n">
         <v>1.65</v>
@@ -1225,10 +1225,10 @@
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>3.45</v>
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
         <v>2.06</v>
@@ -1381,7 +1381,7 @@
         <v>2.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="T7" t="n">
         <v>2.6</v>
@@ -1648,7 +1648,7 @@
         <v>1.66</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
         <v>2.62</v>
@@ -2047,7 +2047,7 @@
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
         <v>2.16</v>
@@ -2119,7 +2119,7 @@
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
         <v>70</v>
@@ -2161,7 +2161,7 @@
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
@@ -2170,7 +2170,7 @@
         <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2446,7 +2446,7 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.19</v>
@@ -2866,7 +2866,7 @@
         <v>1.87</v>
       </c>
       <c r="S18" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T18" t="n">
         <v>1.44</v>
@@ -2932,7 +2932,7 @@
         <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>1.62</v>
       </c>
       <c r="G19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H19" t="n">
         <v>6</v>
@@ -3115,7 +3115,7 @@
         <v>6.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-11.xlsx
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -985,10 +985,10 @@
         <v>1.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1225,7 +1225,7 @@
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1651,7 +1651,7 @@
         <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T9" t="n">
         <v>1.02</v>
@@ -1771,7 +1771,7 @@
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
         <v>1.43</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
         <v>3.05</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.1</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I11" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J11" t="n">
         <v>3.25</v>
@@ -1918,7 +1918,7 @@
         <v>2.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
         <v>5.4</v>
@@ -1927,16 +1927,16 @@
         <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>8.4</v>
@@ -2038,7 +2038,7 @@
         <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>3.25</v>
@@ -2170,7 +2170,7 @@
         <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2305,7 +2305,7 @@
         <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2371,7 +2371,7 @@
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
         <v>60</v>
@@ -2845,7 +2845,7 @@
         <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -2866,7 +2866,7 @@
         <v>1.87</v>
       </c>
       <c r="S18" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T18" t="n">
         <v>1.44</v>
@@ -2893,7 +2893,7 @@
         <v>29</v>
       </c>
       <c r="AB18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
         <v>11</v>
@@ -2905,10 +2905,10 @@
         <v>18</v>
       </c>
       <c r="AF18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>14</v>
@@ -3064,7 +3064,7 @@
         <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO19" t="n">
         <v>90</v>
@@ -3103,10 +3103,10 @@
         <v>1.3</v>
       </c>
       <c r="H20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
         <v>6.6</v>
@@ -3115,7 +3115,7 @@
         <v>6.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3127,7 +3127,7 @@
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="Q20" t="n">
         <v>1.53</v>
@@ -3145,10 +3145,10 @@
         <v>1.92</v>
       </c>
       <c r="V20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X20" t="n">
         <v>28</v>
@@ -3160,7 +3160,7 @@
         <v>130</v>
       </c>
       <c r="AA20" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AB20" t="n">
         <v>11</v>
@@ -3256,7 +3256,7 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.17</v>
@@ -3517,7 +3517,7 @@
         <v>2.88</v>
       </c>
       <c r="K23" t="n">
-        <v>990</v>
+        <v>110</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-11.xlsx
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="G4" t="n">
         <v>1.94</v>
@@ -946,13 +946,13 @@
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -967,10 +967,10 @@
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -985,16 +985,16 @@
         <v>1.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W4" t="n">
         <v>2.06</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,13 +1003,13 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Q5" t="n">
         <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="S5" t="n">
         <v>1.01</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,13 +1138,13 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1225,7 +1225,7 @@
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
         <v>2.06</v>
@@ -1348,16 +1348,16 @@
         <v>1.1</v>
       </c>
       <c r="H7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K7" t="n">
         <v>18</v>
-      </c>
-      <c r="K7" t="n">
-        <v>18.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.14</v>
@@ -1381,25 +1381,25 @@
         <v>2.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="U7" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="V7" t="n">
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X7" t="n">
         <v>85</v>
       </c>
       <c r="Y7" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
         <v>470</v>
@@ -1411,10 +1411,10 @@
         <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1486,10 +1486,10 @@
         <v>7.2</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.8</v>
@@ -1618,7 +1618,7 @@
         <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="I9" t="n">
         <v>2.02</v>
@@ -1666,10 +1666,10 @@
         <v>1.21</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,13 +1678,13 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1693,10 +1693,10 @@
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1918,7 +1918,7 @@
         <v>2.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
         <v>5.4</v>
@@ -2035,10 +2035,10 @@
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
         <v>3.25</v>
@@ -2158,10 +2158,10 @@
         <v>2.42</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
@@ -2170,7 +2170,7 @@
         <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2185,7 +2185,7 @@
         <v>1.97</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
         <v>1.37</v>
@@ -2206,7 +2206,7 @@
         <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
@@ -2221,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
         <v>13.5</v>
@@ -2290,7 +2290,7 @@
         <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H14" t="n">
         <v>3.35</v>
@@ -2305,7 +2305,7 @@
         <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2338,7 +2338,7 @@
         <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X14" t="n">
         <v>11.5</v>
@@ -2353,7 +2353,7 @@
         <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
         <v>7.4</v>
@@ -2428,10 +2428,10 @@
         <v>1.43</v>
       </c>
       <c r="H15" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J15" t="n">
         <v>5.3</v>
@@ -2440,13 +2440,13 @@
         <v>5.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.19</v>
@@ -2470,7 +2470,7 @@
         <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W15" t="n">
         <v>3.3</v>
@@ -2485,7 +2485,7 @@
         <v>90</v>
       </c>
       <c r="AA15" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB15" t="n">
         <v>10.5</v>
@@ -2503,10 +2503,10 @@
         <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
         <v>95</v>
@@ -2527,7 +2527,7 @@
         <v>5.3</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -2599,7 +2599,7 @@
         <v>1.94</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
         <v>2.38</v>
@@ -2611,7 +2611,7 @@
         <v>3.7</v>
       </c>
       <c r="X16" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="Y16" t="n">
         <v>50</v>
@@ -2659,7 +2659,7 @@
         <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO16" t="n">
         <v>75</v>
@@ -2722,7 +2722,7 @@
         <v>1.37</v>
       </c>
       <c r="P17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
         <v>2.12</v>
@@ -2734,7 +2734,7 @@
         <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
         <v>2.06</v>
@@ -2833,10 +2833,10 @@
         <v>3.55</v>
       </c>
       <c r="H18" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
         <v>4.2</v>
@@ -2860,7 +2860,7 @@
         <v>3.05</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R18" t="n">
         <v>1.87</v>
@@ -2875,16 +2875,16 @@
         <v>3.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="W18" t="n">
         <v>1.39</v>
       </c>
       <c r="X18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z18" t="n">
         <v>19</v>
@@ -2971,7 +2971,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J19" t="n">
         <v>4.4</v>
@@ -3010,7 +3010,7 @@
         <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W19" t="n">
         <v>2.56</v>
@@ -3019,7 +3019,7 @@
         <v>18</v>
       </c>
       <c r="Y19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="n">
         <v>50</v>
@@ -3040,7 +3040,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG19" t="n">
         <v>9.6</v>
@@ -3103,13 +3103,13 @@
         <v>1.3</v>
       </c>
       <c r="H20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
         <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K20" t="n">
         <v>6.8</v>
@@ -3130,7 +3130,7 @@
         <v>2.82</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R20" t="n">
         <v>1.73</v>
@@ -3199,7 +3199,7 @@
         <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO20" t="n">
         <v>190</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="G21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H21" t="n">
+        <v>11</v>
+      </c>
+      <c r="I21" t="n">
         <v>11.5</v>
       </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
       <c r="J21" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="K21" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
         <v>1.28</v>
@@ -3262,16 +3262,16 @@
         <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q21" t="n">
         <v>1.66</v>
       </c>
       <c r="R21" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S21" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T21" t="n">
         <v>2.14</v>
@@ -3283,7 +3283,7 @@
         <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
@@ -3295,7 +3295,7 @@
         <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="AB21" t="n">
         <v>9.199999999999999</v>
@@ -3304,13 +3304,13 @@
         <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE21" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -3319,10 +3319,10 @@
         <v>32</v>
       </c>
       <c r="AI21" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK21" t="n">
         <v>13.5</v>
@@ -3337,7 +3337,7 @@
         <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -3421,10 +3421,10 @@
         <v>2.74</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,13 +3433,13 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3448,10 +3448,10 @@
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3508,7 +3508,7 @@
         <v>2.88</v>
       </c>
       <c r="H23" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="I23" t="n">
         <v>4.3</v>
@@ -3538,10 +3538,10 @@
         <v>1.71</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T23" t="n">
         <v>1.02</v>
@@ -3556,10 +3556,10 @@
         <v>1.53</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,13 +3568,13 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3583,10 +3583,10 @@
         <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
